--- a/Planning/Skills Audit/Team Skill Audit/Version1/Group_Skill_Audit_(CleckFreshMart).xlsx
+++ b/Planning/Skills Audit/Team Skill Audit/Version1/Group_Skill_Audit_(CleckFreshMart).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karan\OneDrive\Desktop\level5 sem2\Project Management\CleckFresh-Mart\CleckFresh-Mart\Planning\Skills Audit\Team Skill Audit\Version1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13382380-BFED-464D-963D-4941584806C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F292459-605A-47F2-8F0C-B94B384675F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -283,12 +283,6 @@
     <t>Subarna Raj Upreti, Subash Rimal, Mukesh Bikram Malla, Sandesh Paudel</t>
   </si>
   <si>
-    <t>Karan Chaudahry, Sandesh Paudel, Navish Dewan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karan Chaudahry, Sandesh Paudel, Navish Dewan, Subash Rimal, </t>
-  </si>
-  <si>
     <t>Sandesh Paudel, Karan Chaudhary, Subash Rimal</t>
   </si>
   <si>
@@ -314,6 +308,12 @@
   </si>
   <si>
     <t>Karan Chaudhary, Subash Rimal, Sandesh Paudel</t>
+  </si>
+  <si>
+    <t>Karan Chaudhary, Sandesh Paudel, Navish Dewan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karan Chaudhary, Sandesh Paudel, Navish Dewan, Subash Rimal, </t>
   </si>
 </sst>
 </file>
@@ -954,8 +954,8 @@
   </sheetPr>
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="59" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1131,7 +1131,7 @@
         <v>45003</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1157,7 +1157,7 @@
         <v>45007</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1183,7 +1183,7 @@
         <v>45010</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1209,7 +1209,7 @@
         <v>45005</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1235,7 +1235,7 @@
         <v>44998</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1261,7 +1261,7 @@
         <v>45012</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1287,7 +1287,7 @@
         <v>45001</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1313,7 +1313,7 @@
         <v>45014</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1339,7 +1339,7 @@
         <v>45004</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -1365,7 +1365,7 @@
         <v>44997</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1391,7 +1391,7 @@
         <v>45010</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -1417,7 +1417,7 @@
         <v>45011</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -1443,7 +1443,7 @@
         <v>45011</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1469,7 +1469,7 @@
         <v>45015</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>45007</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -1521,7 +1521,7 @@
         <v>44997</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -1547,7 +1547,7 @@
         <v>44997</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1573,7 +1573,7 @@
         <v>45005</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1599,7 +1599,7 @@
         <v>44998</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1625,7 +1625,7 @@
         <v>44996</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -1651,7 +1651,7 @@
         <v>44997</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
         <v>45010</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
